--- a/Week 03/W3 - Entropy Calculator - v2.xlsx
+++ b/Week 03/W3 - Entropy Calculator - v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\UNC\MAC 854 _Data Analytics for Accounting\Week 3 Live Session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Projects\uncmac854course\Week 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7088E8B-7EE8-46D0-B300-5B0A75758AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8ACB99-4E71-4B46-A0B5-4618FB9ADD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entropy and Gini" sheetId="3" r:id="rId1"/>
@@ -941,9 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D65A9E-D666-432A-99DE-8A2193CF8722}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1353,7 +1351,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D17" formula="1"/>
+    <ignoredError sqref="D17:D18" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>